--- a/biology/Zoologie/Agapanthia/Agapanthia.xlsx
+++ b/biology/Zoologie/Agapanthia/Agapanthia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agapanthia est un genre d’insectes coléoptères de la famille des cérambycidés lamiaires, de la tribu des Agapanthiini, répandu avec environ soixante-dix espèces en Europe, Afrique septentrionale et Asie tempérée.
 </t>
@@ -511,15 +523,86 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Agapanthia a été décrit par l'entomologiste français Jean Guillaume Audinet-Serville, en 1835[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Agapanthia a été décrit par l'entomologiste français Jean Guillaume Audinet-Serville, en 1835.
 L'espèce type pour le genre est Agapanthia cardui (Linnaeus, 1767)
-Synonymie
-Agaphantia Stephens, 1839
-Epoptes Gistl, 1857[2]
-Taxinomie
-Le genre est divisé en neuf sous-genre :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agapanthia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agapanthia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Agaphantia Stephens, 1839
+Epoptes Gistl, 1857</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agapanthia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agapanthia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le genre est divisé en neuf sous-genre :
 Sous-genre Agapanthia (Agapanthia) Audinet-Serville, 1835
 Agapanthia boeberi (Fischer von Walheim, 1806)
 Agapanthia cardui (Linnaeus, 1767) Espèce type pour le genre
@@ -596,9 +679,43 @@
 Agapanthia nigriventris Waterhall, 1889
 Agapanthia soror Kraatz, 1882
 Sous-genre Agapanthia ( Synthapsia) Pesarini &amp; Sabbadini, 2004
-Agapanthia kirbyi (Gyllenhal, 1817)
-Espèces rencontrées en Europe
-Agapanthia annularis (Olivier, 1795)
+Agapanthia kirbyi (Gyllenhal, 1817)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agapanthia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agapanthia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées en Europe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Agapanthia annularis (Olivier, 1795)
 Agapanthia asphodeli (Latreille, 1804)
 Agapanthia cardui (Linnaeus, 1767) Espèce type pour le genre
 Agapanthia cretica Bernhauer, 1978
